--- a/Final_File.xlsx
+++ b/Final_File.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pverao/Documents/shares/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pverao/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BEAF8AAD-86AC-4846-8CD4-2FAA74D90031}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9576E89F-741D-D848-B4F1-340CE7897440}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="16-02-2017-TO-15-02-2019ASHOKLE" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="508" uniqueCount="11">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1000" uniqueCount="16">
   <si>
     <t>Symbol</t>
   </si>
@@ -65,12 +65,27 @@
   <si>
     <t>Momentum_Nifty</t>
   </si>
+  <si>
+    <t>Interest Rates</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -223,6 +238,11 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="33">
@@ -566,12 +586,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -927,13 +948,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L497"/>
+  <dimension ref="A1:M497"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A461" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="7" max="7" width="37.5" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
@@ -941,9 +962,10 @@
     <col min="10" max="10" width="28.83203125" customWidth="1"/>
     <col min="11" max="11" width="43" customWidth="1"/>
     <col min="12" max="12" width="26.83203125" customWidth="1"/>
+    <col min="13" max="13" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -980,8 +1002,11 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" hidden="1">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1005,7 +1030,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" hidden="1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1029,7 +1054,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" hidden="1">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1053,7 +1078,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" hidden="1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1077,7 +1102,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" hidden="1">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1109,7 +1134,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1152,8 +1177,11 @@
         <f>(J7+J6+J5+J4+J3)/5</f>
         <v>0.12</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1196,8 +1224,11 @@
         <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1240,8 +1271,11 @@
         <f t="shared" si="4"/>
         <v>0.32</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1284,8 +1318,11 @@
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1328,8 +1365,11 @@
         <f t="shared" si="4"/>
         <v>0.48000000000000009</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1372,8 +1412,11 @@
         <f t="shared" si="4"/>
         <v>0.44000000000000006</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1416,8 +1459,11 @@
         <f t="shared" si="4"/>
         <v>0.43999999999999995</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1460,8 +1506,11 @@
         <f t="shared" si="4"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1504,8 +1553,11 @@
         <f t="shared" si="4"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1548,8 +1600,11 @@
         <f t="shared" si="4"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1592,8 +1647,11 @@
         <f t="shared" si="4"/>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1636,8 +1694,11 @@
         <f t="shared" si="4"/>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1680,8 +1741,11 @@
         <f t="shared" si="4"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1724,8 +1788,11 @@
         <f t="shared" si="4"/>
         <v>0.67999999999999994</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1768,8 +1835,11 @@
         <f t="shared" si="4"/>
         <v>0.76</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1812,8 +1882,11 @@
         <f t="shared" si="4"/>
         <v>0.76</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1856,8 +1929,11 @@
         <f t="shared" si="4"/>
         <v>0.72</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1900,8 +1976,11 @@
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1944,8 +2023,11 @@
         <f t="shared" si="5"/>
         <v>0.44000000000000006</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1988,8 +2070,11 @@
         <f t="shared" si="5"/>
         <v>0.32</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2032,8 +2117,11 @@
         <f t="shared" si="5"/>
         <v>0.24000000000000005</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2076,8 +2164,11 @@
         <f t="shared" si="5"/>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2120,8 +2211,11 @@
         <f t="shared" si="5"/>
         <v>0.27999999999999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2164,8 +2258,11 @@
         <f t="shared" si="5"/>
         <v>0.32</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2208,8 +2305,11 @@
         <f t="shared" si="5"/>
         <v>0.39999999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2252,8 +2352,11 @@
         <f t="shared" si="5"/>
         <v>0.51999999999999991</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2296,8 +2399,11 @@
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2340,8 +2446,11 @@
         <f t="shared" si="5"/>
         <v>0.72</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2384,8 +2493,11 @@
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2428,8 +2540,11 @@
         <f t="shared" si="5"/>
         <v>0.84000000000000008</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2472,8 +2587,11 @@
         <f t="shared" si="5"/>
         <v>0.84000000000000008</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2516,8 +2634,11 @@
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2560,8 +2681,11 @@
         <f t="shared" si="5"/>
         <v>0.68</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2604,8 +2728,11 @@
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2648,8 +2775,11 @@
         <f t="shared" si="6"/>
         <v>0.48000000000000009</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2692,8 +2822,11 @@
         <f t="shared" si="6"/>
         <v>0.36000000000000004</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -2736,8 +2869,11 @@
         <f t="shared" si="6"/>
         <v>0.32</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2780,8 +2916,11 @@
         <f t="shared" si="6"/>
         <v>0.32</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -2824,8 +2963,11 @@
         <f t="shared" si="6"/>
         <v>0.36</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2868,8 +3010,11 @@
         <f t="shared" si="6"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -2912,8 +3057,11 @@
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2956,8 +3104,11 @@
         <f t="shared" si="6"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -3000,8 +3151,11 @@
         <f t="shared" si="6"/>
         <v>0.72</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -3044,8 +3198,11 @@
         <f t="shared" si="6"/>
         <v>0.76</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -3088,8 +3245,11 @@
         <f t="shared" si="6"/>
         <v>0.72000000000000008</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -3132,8 +3292,11 @@
         <f t="shared" si="6"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -3176,8 +3339,11 @@
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -3220,8 +3386,11 @@
         <f t="shared" si="6"/>
         <v>0.52000000000000013</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -3264,8 +3433,11 @@
         <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -3308,8 +3480,11 @@
         <f t="shared" si="7"/>
         <v>0.36</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -3352,8 +3527,11 @@
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -3396,8 +3574,11 @@
         <f t="shared" si="7"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -3440,8 +3621,11 @@
         <f t="shared" si="7"/>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -3484,8 +3668,11 @@
         <f t="shared" si="7"/>
         <v>0.72</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -3528,8 +3715,11 @@
         <f t="shared" si="7"/>
         <v>0.83999999999999986</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -3572,8 +3762,11 @@
         <f t="shared" si="7"/>
         <v>0.87999999999999989</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -3616,8 +3809,11 @@
         <f t="shared" si="7"/>
         <v>0.84000000000000008</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -3660,8 +3856,11 @@
         <f t="shared" si="7"/>
         <v>0.76</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -3704,8 +3903,11 @@
         <f t="shared" si="7"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -3748,8 +3950,11 @@
         <f t="shared" si="7"/>
         <v>0.52000000000000013</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -3792,8 +3997,11 @@
         <f t="shared" si="7"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -3836,8 +4044,11 @@
         <f t="shared" si="7"/>
         <v>0.51999999999999991</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -3880,8 +4091,11 @@
         <f t="shared" si="7"/>
         <v>0.6399999999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -3924,8 +4138,11 @@
         <f t="shared" si="7"/>
         <v>0.76</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -3968,8 +4185,11 @@
         <f t="shared" si="7"/>
         <v>0.87999999999999989</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -4012,8 +4232,11 @@
         <f t="shared" si="12"/>
         <v>0.96</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -4056,8 +4279,11 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -4100,8 +4326,11 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -4144,8 +4373,11 @@
         <f t="shared" si="12"/>
         <v>0.96</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -4188,8 +4420,11 @@
         <f t="shared" si="12"/>
         <v>0.91999999999999993</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -4232,8 +4467,11 @@
         <f t="shared" si="12"/>
         <v>0.88000000000000012</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -4276,8 +4514,11 @@
         <f t="shared" si="12"/>
         <v>0.84000000000000008</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -4320,8 +4561,11 @@
         <f t="shared" si="12"/>
         <v>0.76</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -4364,8 +4608,11 @@
         <f t="shared" si="12"/>
         <v>0.72</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -4408,8 +4655,11 @@
         <f t="shared" si="12"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -4452,8 +4702,11 @@
         <f t="shared" si="12"/>
         <v>0.52000000000000013</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -4496,8 +4749,11 @@
         <f t="shared" si="12"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -4540,8 +4796,11 @@
         <f t="shared" si="12"/>
         <v>0.36000000000000004</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -4584,8 +4843,11 @@
         <f t="shared" si="12"/>
         <v>0.36</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -4628,8 +4890,11 @@
         <f t="shared" si="12"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -4672,8 +4937,11 @@
         <f t="shared" si="12"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -4716,8 +4984,11 @@
         <f t="shared" si="13"/>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -4760,8 +5031,11 @@
         <f t="shared" si="13"/>
         <v>0.48000000000000009</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -4804,8 +5078,11 @@
         <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -4848,8 +5125,11 @@
         <f t="shared" si="13"/>
         <v>0.32</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -4892,8 +5172,11 @@
         <f t="shared" si="13"/>
         <v>0.24000000000000005</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -4936,8 +5219,11 @@
         <f t="shared" si="13"/>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -4980,8 +5266,11 @@
         <f t="shared" si="13"/>
         <v>0.27999999999999997</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -5024,8 +5313,11 @@
         <f t="shared" si="13"/>
         <v>0.32</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -5068,8 +5360,11 @@
         <f t="shared" si="13"/>
         <v>0.39999999999999997</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -5112,8 +5407,11 @@
         <f t="shared" si="13"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -5156,8 +5454,11 @@
         <f t="shared" si="13"/>
         <v>0.51999999999999991</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -5200,8 +5501,11 @@
         <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -5244,8 +5548,11 @@
         <f t="shared" si="13"/>
         <v>0.68</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -5288,8 +5595,11 @@
         <f t="shared" si="13"/>
         <v>0.72000000000000008</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -5332,8 +5642,11 @@
         <f t="shared" si="13"/>
         <v>0.76</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -5376,8 +5689,11 @@
         <f t="shared" si="13"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -5420,8 +5736,11 @@
         <f t="shared" si="14"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -5464,8 +5783,11 @@
         <f t="shared" si="14"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -5508,8 +5830,11 @@
         <f t="shared" si="14"/>
         <v>0.76</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -5552,8 +5877,11 @@
         <f t="shared" si="14"/>
         <v>0.72</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -5596,8 +5924,11 @@
         <f t="shared" si="14"/>
         <v>0.67999999999999994</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
         <v>4</v>
       </c>
@@ -5640,8 +5971,11 @@
         <f t="shared" si="14"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -5684,8 +6018,11 @@
         <f t="shared" si="14"/>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -5728,8 +6065,11 @@
         <f t="shared" si="14"/>
         <v>0.48000000000000009</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
         <v>4</v>
       </c>
@@ -5772,8 +6112,11 @@
         <f t="shared" si="14"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -5816,8 +6159,11 @@
         <f t="shared" si="14"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -5860,8 +6206,11 @@
         <f t="shared" si="14"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -5904,8 +6253,11 @@
         <f t="shared" si="14"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -5948,8 +6300,11 @@
         <f t="shared" si="14"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -5992,8 +6347,11 @@
         <f t="shared" si="14"/>
         <v>0.6399999999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M117" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -6036,8 +6394,11 @@
         <f t="shared" si="14"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -6080,8 +6441,11 @@
         <f t="shared" si="14"/>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -6124,8 +6488,11 @@
         <f t="shared" si="15"/>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -6168,8 +6535,11 @@
         <f t="shared" si="15"/>
         <v>0.48000000000000009</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" t="s">
         <v>4</v>
       </c>
@@ -6212,8 +6582,11 @@
         <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -6256,8 +6629,11 @@
         <f t="shared" si="15"/>
         <v>0.32</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -6300,8 +6676,11 @@
         <f t="shared" si="15"/>
         <v>0.32</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M124" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" t="s">
         <v>4</v>
       </c>
@@ -6344,8 +6723,11 @@
         <f t="shared" si="15"/>
         <v>0.32</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -6388,8 +6770,11 @@
         <f t="shared" si="15"/>
         <v>0.32</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -6432,8 +6817,11 @@
         <f t="shared" si="15"/>
         <v>0.36</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" t="s">
         <v>4</v>
       </c>
@@ -6476,8 +6864,11 @@
         <f t="shared" si="15"/>
         <v>0.36</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" t="s">
         <v>4</v>
       </c>
@@ -6520,8 +6911,11 @@
         <f t="shared" si="15"/>
         <v>0.32</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M129" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -6564,8 +6958,11 @@
         <f t="shared" si="15"/>
         <v>0.32</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" t="s">
         <v>4</v>
       </c>
@@ -6608,8 +7005,11 @@
         <f t="shared" si="15"/>
         <v>0.36</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" t="s">
         <v>4</v>
       </c>
@@ -6652,8 +7052,11 @@
         <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -6696,8 +7099,11 @@
         <f t="shared" si="15"/>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -6740,8 +7146,11 @@
         <f t="shared" si="15"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" t="s">
         <v>4</v>
       </c>
@@ -6784,8 +7193,11 @@
         <f t="shared" si="15"/>
         <v>0.72000000000000008</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M135" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -6828,8 +7240,11 @@
         <f t="shared" si="20"/>
         <v>0.72</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -6872,8 +7287,11 @@
         <f t="shared" si="20"/>
         <v>0.76</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" t="s">
         <v>4</v>
       </c>
@@ -6916,8 +7334,11 @@
         <f t="shared" si="20"/>
         <v>0.72</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M138" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" t="s">
         <v>4</v>
       </c>
@@ -6960,8 +7381,11 @@
         <f t="shared" si="20"/>
         <v>0.68</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -7004,8 +7428,11 @@
         <f t="shared" si="20"/>
         <v>0.60000000000000009</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" t="s">
         <v>4</v>
       </c>
@@ -7048,8 +7475,11 @@
         <f t="shared" si="20"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M141" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -7092,8 +7522,11 @@
         <f t="shared" si="20"/>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -7136,8 +7569,11 @@
         <f t="shared" si="20"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M143" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" t="s">
         <v>4</v>
       </c>
@@ -7180,8 +7616,11 @@
         <f t="shared" si="20"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" t="s">
         <v>4</v>
       </c>
@@ -7224,8 +7663,11 @@
         <f t="shared" si="20"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M145" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" t="s">
         <v>4</v>
       </c>
@@ -7268,8 +7710,11 @@
         <f t="shared" si="20"/>
         <v>0.68</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -7312,8 +7757,11 @@
         <f t="shared" si="20"/>
         <v>0.72000000000000008</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M147" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -7356,8 +7804,11 @@
         <f t="shared" si="20"/>
         <v>0.76</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -7400,8 +7851,11 @@
         <f t="shared" si="20"/>
         <v>0.76</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" t="s">
         <v>4</v>
       </c>
@@ -7444,8 +7898,11 @@
         <f t="shared" si="20"/>
         <v>0.68</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M150" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" t="s">
         <v>4</v>
       </c>
@@ -7488,8 +7945,11 @@
         <f t="shared" si="20"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M151" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -7532,8 +7992,11 @@
         <f t="shared" si="21"/>
         <v>0.44000000000000006</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -7576,8 +8039,11 @@
         <f t="shared" si="21"/>
         <v>0.32</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" t="s">
         <v>4</v>
       </c>
@@ -7620,8 +8086,11 @@
         <f t="shared" si="21"/>
         <v>0.27999999999999997</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M154" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -7664,8 +8133,11 @@
         <f t="shared" si="21"/>
         <v>0.31999999999999995</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M155" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" t="s">
         <v>4</v>
       </c>
@@ -7708,8 +8180,11 @@
         <f t="shared" si="21"/>
         <v>0.43999999999999995</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M156" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -7752,8 +8227,11 @@
         <f t="shared" si="21"/>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" t="s">
         <v>4</v>
       </c>
@@ -7796,8 +8274,11 @@
         <f t="shared" si="21"/>
         <v>0.68</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -7840,8 +8321,11 @@
         <f t="shared" si="21"/>
         <v>0.76</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -7884,8 +8368,11 @@
         <f t="shared" si="21"/>
         <v>0.76</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -7928,8 +8415,11 @@
         <f t="shared" si="21"/>
         <v>0.72</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -7972,8 +8462,11 @@
         <f t="shared" si="21"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -8016,8 +8509,11 @@
         <f t="shared" si="21"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -8060,8 +8556,11 @@
         <f t="shared" si="21"/>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -8104,8 +8603,11 @@
         <f t="shared" si="21"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -8148,8 +8650,11 @@
         <f t="shared" si="21"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M166" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" t="s">
         <v>4</v>
       </c>
@@ -8192,8 +8697,11 @@
         <f t="shared" si="21"/>
         <v>0.72000000000000008</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M167" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" t="s">
         <v>4</v>
       </c>
@@ -8236,8 +8744,11 @@
         <f t="shared" si="22"/>
         <v>0.72</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M168" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -8280,8 +8791,11 @@
         <f t="shared" si="22"/>
         <v>0.72</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -8324,8 +8838,11 @@
         <f t="shared" si="22"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -8368,8 +8885,11 @@
         <f t="shared" si="22"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M171" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
       <c r="A172" t="s">
         <v>4</v>
       </c>
@@ -8412,8 +8932,11 @@
         <f t="shared" si="22"/>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M172" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
       <c r="A173" t="s">
         <v>4</v>
       </c>
@@ -8456,8 +8979,11 @@
         <f t="shared" si="22"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M173" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
       <c r="A174" t="s">
         <v>4</v>
       </c>
@@ -8500,8 +9026,11 @@
         <f t="shared" si="22"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M174" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -8544,8 +9073,11 @@
         <f t="shared" si="22"/>
         <v>0.68</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M175" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -8588,8 +9120,11 @@
         <f t="shared" si="22"/>
         <v>0.72</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M176" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -8632,8 +9167,11 @@
         <f t="shared" si="22"/>
         <v>0.68</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M177" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -8676,8 +9214,11 @@
         <f t="shared" si="22"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M178" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -8720,8 +9261,11 @@
         <f t="shared" si="22"/>
         <v>0.52000000000000013</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -8764,8 +9308,11 @@
         <f t="shared" si="22"/>
         <v>0.44000000000000006</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -8808,8 +9355,11 @@
         <f t="shared" si="22"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M181" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
       <c r="A182" t="s">
         <v>4</v>
       </c>
@@ -8852,8 +9402,11 @@
         <f t="shared" si="22"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -8896,8 +9449,11 @@
         <f t="shared" si="22"/>
         <v>0.36</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -8940,8 +9496,11 @@
         <f t="shared" si="23"/>
         <v>0.27999999999999997</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M184" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -8984,8 +9543,11 @@
         <f t="shared" si="23"/>
         <v>0.24000000000000005</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M185" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -9028,8 +9590,11 @@
         <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13">
       <c r="A187" t="s">
         <v>4</v>
       </c>
@@ -9072,8 +9637,11 @@
         <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M187" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -9116,8 +9684,11 @@
         <f t="shared" si="23"/>
         <v>0.27999999999999997</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -9160,8 +9731,11 @@
         <f t="shared" si="23"/>
         <v>0.43999999999999995</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M189" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13">
       <c r="A190" t="s">
         <v>4</v>
       </c>
@@ -9204,8 +9778,11 @@
         <f t="shared" si="23"/>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -9248,8 +9825,11 @@
         <f t="shared" si="23"/>
         <v>0.72</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M191" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -9292,8 +9872,11 @@
         <f t="shared" si="23"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M192" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -9336,8 +9919,11 @@
         <f t="shared" si="23"/>
         <v>0.84000000000000008</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M193" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -9380,8 +9966,11 @@
         <f t="shared" si="23"/>
         <v>0.84000000000000008</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -9424,8 +10013,11 @@
         <f t="shared" si="23"/>
         <v>0.84000000000000008</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M195" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -9468,8 +10060,11 @@
         <f t="shared" si="23"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M196" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -9512,8 +10107,11 @@
         <f t="shared" si="23"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M197" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13">
       <c r="A198" t="s">
         <v>4</v>
       </c>
@@ -9556,8 +10154,11 @@
         <f t="shared" si="23"/>
         <v>0.76</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -9600,8 +10201,11 @@
         <f t="shared" si="23"/>
         <v>0.68</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M199" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -9644,8 +10248,11 @@
         <f t="shared" si="28"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M200" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13">
       <c r="A201" t="s">
         <v>4</v>
       </c>
@@ -9688,8 +10295,11 @@
         <f t="shared" si="28"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M201" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13">
       <c r="A202" t="s">
         <v>4</v>
       </c>
@@ -9732,8 +10342,11 @@
         <f t="shared" si="28"/>
         <v>0.27999999999999997</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M202" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13">
       <c r="A203" t="s">
         <v>4</v>
       </c>
@@ -9776,8 +10389,11 @@
         <f t="shared" si="28"/>
         <v>0.24000000000000005</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M203" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13">
       <c r="A204" t="s">
         <v>4</v>
       </c>
@@ -9820,8 +10436,11 @@
         <f t="shared" si="28"/>
         <v>0.27999999999999997</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M204" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13">
       <c r="A205" t="s">
         <v>4</v>
       </c>
@@ -9864,8 +10483,11 @@
         <f t="shared" si="28"/>
         <v>0.36</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M205" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -9908,8 +10530,11 @@
         <f t="shared" si="28"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M206" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13">
       <c r="A207" t="s">
         <v>4</v>
       </c>
@@ -9952,8 +10577,11 @@
         <f t="shared" si="28"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M207" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13">
       <c r="A208" t="s">
         <v>4</v>
       </c>
@@ -9996,8 +10624,11 @@
         <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M208" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13">
       <c r="A209" t="s">
         <v>4</v>
       </c>
@@ -10040,8 +10671,11 @@
         <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M209" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13">
       <c r="A210" t="s">
         <v>4</v>
       </c>
@@ -10084,8 +10718,11 @@
         <f t="shared" si="28"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M210" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13">
       <c r="A211" t="s">
         <v>4</v>
       </c>
@@ -10128,8 +10765,11 @@
         <f t="shared" si="28"/>
         <v>0.68</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M211" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13">
       <c r="A212" t="s">
         <v>4</v>
       </c>
@@ -10172,8 +10812,11 @@
         <f t="shared" si="28"/>
         <v>0.68</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M212" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13">
       <c r="A213" t="s">
         <v>4</v>
       </c>
@@ -10216,8 +10859,11 @@
         <f t="shared" si="28"/>
         <v>0.67999999999999994</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -10260,8 +10906,11 @@
         <f t="shared" si="28"/>
         <v>0.67999999999999994</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M214" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13">
       <c r="A215" t="s">
         <v>4</v>
       </c>
@@ -10304,8 +10953,11 @@
         <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M215" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -10348,8 +11000,11 @@
         <f t="shared" si="29"/>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M216" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13">
       <c r="A217" t="s">
         <v>4</v>
       </c>
@@ -10392,8 +11047,11 @@
         <f t="shared" si="29"/>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M217" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13">
       <c r="A218" t="s">
         <v>4</v>
       </c>
@@ -10436,8 +11094,11 @@
         <f t="shared" si="29"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M218" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13">
       <c r="A219" t="s">
         <v>4</v>
       </c>
@@ -10480,8 +11141,11 @@
         <f t="shared" si="29"/>
         <v>0.43999999999999995</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M219" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13">
       <c r="A220" t="s">
         <v>4</v>
       </c>
@@ -10524,8 +11188,11 @@
         <f t="shared" si="29"/>
         <v>0.44000000000000006</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M220" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -10568,8 +11235,11 @@
         <f t="shared" si="29"/>
         <v>0.44000000000000006</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M221" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13">
       <c r="A222" t="s">
         <v>4</v>
       </c>
@@ -10612,8 +11282,11 @@
         <f t="shared" si="29"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13">
       <c r="A223" t="s">
         <v>4</v>
       </c>
@@ -10656,8 +11329,11 @@
         <f t="shared" si="29"/>
         <v>0.43999999999999995</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M223" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13">
       <c r="A224" t="s">
         <v>4</v>
       </c>
@@ -10700,8 +11376,11 @@
         <f t="shared" si="29"/>
         <v>0.43999999999999995</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M224" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13">
       <c r="A225" t="s">
         <v>4</v>
       </c>
@@ -10744,8 +11423,11 @@
         <f t="shared" si="29"/>
         <v>0.43999999999999995</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13">
       <c r="A226" t="s">
         <v>4</v>
       </c>
@@ -10788,8 +11470,11 @@
         <f t="shared" si="29"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M226" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13">
       <c r="A227" t="s">
         <v>4</v>
       </c>
@@ -10832,8 +11517,11 @@
         <f t="shared" si="29"/>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M227" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13">
       <c r="A228" t="s">
         <v>4</v>
       </c>
@@ -10876,8 +11564,11 @@
         <f t="shared" si="29"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M228" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13">
       <c r="A229" t="s">
         <v>4</v>
       </c>
@@ -10920,8 +11611,11 @@
         <f t="shared" si="29"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M229" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13">
       <c r="A230" t="s">
         <v>4</v>
       </c>
@@ -10964,8 +11658,11 @@
         <f t="shared" si="29"/>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M230" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13">
       <c r="A231" t="s">
         <v>4</v>
       </c>
@@ -11008,8 +11705,11 @@
         <f t="shared" si="29"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M231" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -11052,8 +11752,11 @@
         <f t="shared" si="30"/>
         <v>0.43999999999999995</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M232" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13">
       <c r="A233" t="s">
         <v>4</v>
       </c>
@@ -11096,8 +11799,11 @@
         <f t="shared" si="30"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M233" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13">
       <c r="A234" t="s">
         <v>4</v>
       </c>
@@ -11140,8 +11846,11 @@
         <f t="shared" si="30"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M234" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13">
       <c r="A235" t="s">
         <v>4</v>
       </c>
@@ -11184,8 +11893,11 @@
         <f t="shared" si="30"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M235" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13">
       <c r="A236" t="s">
         <v>4</v>
       </c>
@@ -11228,8 +11940,11 @@
         <f t="shared" si="30"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M236" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13">
       <c r="A237" t="s">
         <v>4</v>
       </c>
@@ -11272,8 +11987,11 @@
         <f t="shared" si="30"/>
         <v>0.6399999999999999</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M237" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13">
       <c r="A238" t="s">
         <v>4</v>
       </c>
@@ -11316,8 +12034,11 @@
         <f t="shared" si="30"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13">
       <c r="A239" t="s">
         <v>4</v>
       </c>
@@ -11360,8 +12081,11 @@
         <f t="shared" si="30"/>
         <v>0.48000000000000009</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M239" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13">
       <c r="A240" t="s">
         <v>4</v>
       </c>
@@ -11404,8 +12128,11 @@
         <f t="shared" si="30"/>
         <v>0.44000000000000006</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M240" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13">
       <c r="A241" t="s">
         <v>4</v>
       </c>
@@ -11448,8 +12175,11 @@
         <f t="shared" si="30"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M241" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13">
       <c r="A242" t="s">
         <v>4</v>
       </c>
@@ -11492,8 +12222,11 @@
         <f t="shared" si="30"/>
         <v>0.36000000000000004</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M242" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13">
       <c r="A243" t="s">
         <v>4</v>
       </c>
@@ -11536,8 +12269,11 @@
         <f t="shared" si="30"/>
         <v>0.36</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M243" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13">
       <c r="A244" t="s">
         <v>4</v>
       </c>
@@ -11580,8 +12316,11 @@
         <f t="shared" si="30"/>
         <v>0.43999999999999995</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M244" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13">
       <c r="A245" t="s">
         <v>4</v>
       </c>
@@ -11624,8 +12363,11 @@
         <f t="shared" si="30"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M245" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13">
       <c r="A246" t="s">
         <v>4</v>
       </c>
@@ -11668,8 +12410,11 @@
         <f t="shared" si="30"/>
         <v>0.51999999999999991</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M246" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13">
       <c r="A247" t="s">
         <v>4</v>
       </c>
@@ -11712,8 +12457,11 @@
         <f t="shared" si="30"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M247" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13">
       <c r="A248" t="s">
         <v>4</v>
       </c>
@@ -11756,8 +12504,11 @@
         <f t="shared" si="31"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M248" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -11800,8 +12551,11 @@
         <f t="shared" si="31"/>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M249" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13">
       <c r="A250" t="s">
         <v>4</v>
       </c>
@@ -11844,8 +12598,11 @@
         <f t="shared" si="31"/>
         <v>0.48000000000000009</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M250" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13">
       <c r="A251" t="s">
         <v>4</v>
       </c>
@@ -11888,8 +12645,11 @@
         <f t="shared" si="31"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M251" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13">
       <c r="A252" t="s">
         <v>4</v>
       </c>
@@ -11932,8 +12692,11 @@
         <f t="shared" si="31"/>
         <v>0.27999999999999997</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M252" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13">
       <c r="A253" t="s">
         <v>4</v>
       </c>
@@ -11976,8 +12739,11 @@
         <f t="shared" si="31"/>
         <v>0.16</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M253" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13">
       <c r="A254" t="s">
         <v>4</v>
       </c>
@@ -12020,8 +12786,11 @@
         <f t="shared" si="31"/>
         <v>0.08</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M254" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13">
       <c r="A255" t="s">
         <v>4</v>
       </c>
@@ -12064,8 +12833,11 @@
         <f t="shared" si="31"/>
         <v>0.08</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M255" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13">
       <c r="A256" t="s">
         <v>4</v>
       </c>
@@ -12108,8 +12880,11 @@
         <f t="shared" si="31"/>
         <v>0.12000000000000002</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M256" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13">
       <c r="A257" t="s">
         <v>4</v>
       </c>
@@ -12152,8 +12927,11 @@
         <f t="shared" si="31"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M257" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13">
       <c r="A258" t="s">
         <v>4</v>
       </c>
@@ -12196,8 +12974,11 @@
         <f t="shared" si="31"/>
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M258" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13">
       <c r="A259" t="s">
         <v>4</v>
       </c>
@@ -12240,8 +13021,11 @@
         <f t="shared" si="31"/>
         <v>0.36</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M259" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13">
       <c r="A260" t="s">
         <v>4</v>
       </c>
@@ -12284,8 +13068,11 @@
         <f t="shared" si="31"/>
         <v>0.36</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M260" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13">
       <c r="A261" t="s">
         <v>4</v>
       </c>
@@ -12328,8 +13115,11 @@
         <f t="shared" si="31"/>
         <v>0.27999999999999997</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M261" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13">
       <c r="A262" t="s">
         <v>4</v>
       </c>
@@ -12372,8 +13162,11 @@
         <f t="shared" si="31"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M262" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13">
       <c r="A263" t="s">
         <v>4</v>
       </c>
@@ -12416,8 +13209,11 @@
         <f t="shared" si="31"/>
         <v>0.16</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M263" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13">
       <c r="A264" t="s">
         <v>4</v>
       </c>
@@ -12460,8 +13256,11 @@
         <f t="shared" si="36"/>
         <v>0.12000000000000002</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M264" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -12504,8 +13303,11 @@
         <f t="shared" si="36"/>
         <v>0.16</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M265" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13">
       <c r="A266" t="s">
         <v>4</v>
       </c>
@@ -12548,8 +13350,11 @@
         <f t="shared" si="36"/>
         <v>0.27999999999999997</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M266" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13">
       <c r="A267" t="s">
         <v>4</v>
       </c>
@@ -12592,8 +13397,11 @@
         <f t="shared" si="36"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M267" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -12636,8 +13444,11 @@
         <f t="shared" si="36"/>
         <v>0.44000000000000006</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M268" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13">
       <c r="A269" t="s">
         <v>4</v>
       </c>
@@ -12680,8 +13491,11 @@
         <f t="shared" si="36"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M269" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13">
       <c r="A270" t="s">
         <v>4</v>
       </c>
@@ -12724,8 +13538,11 @@
         <f t="shared" si="36"/>
         <v>0.44000000000000006</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M270" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13">
       <c r="A271" t="s">
         <v>4</v>
       </c>
@@ -12768,8 +13585,11 @@
         <f t="shared" si="36"/>
         <v>0.36000000000000004</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M271" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13">
       <c r="A272" t="s">
         <v>4</v>
       </c>
@@ -12812,8 +13632,11 @@
         <f t="shared" si="36"/>
         <v>0.27999999999999997</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M272" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13">
       <c r="A273" t="s">
         <v>4</v>
       </c>
@@ -12856,8 +13679,11 @@
         <f t="shared" si="36"/>
         <v>0.24000000000000005</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M273" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13">
       <c r="A274" t="s">
         <v>4</v>
       </c>
@@ -12900,8 +13726,11 @@
         <f t="shared" si="36"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M274" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13">
       <c r="A275" t="s">
         <v>4</v>
       </c>
@@ -12944,8 +13773,11 @@
         <f t="shared" si="36"/>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M275" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13">
       <c r="A276" t="s">
         <v>4</v>
       </c>
@@ -12988,8 +13820,11 @@
         <f t="shared" si="36"/>
         <v>0.27999999999999997</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M276" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13">
       <c r="A277" t="s">
         <v>4</v>
       </c>
@@ -13032,8 +13867,11 @@
         <f t="shared" si="36"/>
         <v>0.32</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M277" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13">
       <c r="A278" t="s">
         <v>4</v>
       </c>
@@ -13076,8 +13914,11 @@
         <f t="shared" si="36"/>
         <v>0.39999999999999997</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M278" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13">
       <c r="A279" t="s">
         <v>4</v>
       </c>
@@ -13120,8 +13961,11 @@
         <f t="shared" si="36"/>
         <v>0.51999999999999991</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M279" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13">
       <c r="A280" t="s">
         <v>4</v>
       </c>
@@ -13164,8 +14008,11 @@
         <f t="shared" si="37"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M280" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13">
       <c r="A281" t="s">
         <v>4</v>
       </c>
@@ -13208,8 +14055,11 @@
         <f t="shared" si="37"/>
         <v>0.68</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M281" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -13252,8 +14102,11 @@
         <f t="shared" si="37"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M282" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -13296,8 +14149,11 @@
         <f t="shared" si="37"/>
         <v>0.87999999999999989</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M283" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13">
       <c r="A284" t="s">
         <v>4</v>
       </c>
@@ -13340,8 +14196,11 @@
         <f t="shared" si="37"/>
         <v>0.87999999999999989</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M284" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13">
       <c r="A285" t="s">
         <v>4</v>
       </c>
@@ -13384,8 +14243,11 @@
         <f t="shared" si="37"/>
         <v>0.88000000000000012</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M285" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13">
       <c r="A286" t="s">
         <v>4</v>
       </c>
@@ -13428,8 +14290,11 @@
         <f t="shared" si="37"/>
         <v>0.88000000000000012</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M286" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13">
       <c r="A287" t="s">
         <v>4</v>
       </c>
@@ -13472,8 +14337,11 @@
         <f t="shared" si="37"/>
         <v>0.84000000000000008</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M287" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13">
       <c r="A288" t="s">
         <v>4</v>
       </c>
@@ -13516,8 +14384,11 @@
         <f t="shared" si="37"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M288" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13">
       <c r="A289" t="s">
         <v>4</v>
       </c>
@@ -13560,8 +14431,11 @@
         <f t="shared" si="37"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M289" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -13604,8 +14478,11 @@
         <f t="shared" si="37"/>
         <v>0.76</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M290" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13">
       <c r="A291" t="s">
         <v>4</v>
       </c>
@@ -13648,8 +14525,11 @@
         <f t="shared" si="37"/>
         <v>0.72</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M291" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13">
       <c r="A292" t="s">
         <v>4</v>
       </c>
@@ -13692,8 +14572,11 @@
         <f t="shared" si="37"/>
         <v>0.67999999999999994</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M292" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13">
       <c r="A293" t="s">
         <v>4</v>
       </c>
@@ -13736,8 +14619,11 @@
         <f t="shared" si="37"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M293" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13">
       <c r="A294" t="s">
         <v>4</v>
       </c>
@@ -13780,8 +14666,11 @@
         <f t="shared" si="37"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M294" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13">
       <c r="A295" t="s">
         <v>4</v>
       </c>
@@ -13824,8 +14713,11 @@
         <f t="shared" si="37"/>
         <v>0.68</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M295" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13">
       <c r="A296" t="s">
         <v>4</v>
       </c>
@@ -13868,8 +14760,11 @@
         <f t="shared" si="38"/>
         <v>0.72000000000000008</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M296" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13">
       <c r="A297" t="s">
         <v>4</v>
       </c>
@@ -13912,8 +14807,11 @@
         <f t="shared" si="38"/>
         <v>0.76</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M297" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13">
       <c r="A298" t="s">
         <v>4</v>
       </c>
@@ -13956,8 +14854,11 @@
         <f t="shared" si="38"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M298" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13">
       <c r="A299" t="s">
         <v>4</v>
       </c>
@@ -14000,8 +14901,11 @@
         <f t="shared" si="38"/>
         <v>0.76</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M299" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13">
       <c r="A300" t="s">
         <v>4</v>
       </c>
@@ -14044,8 +14948,11 @@
         <f t="shared" si="38"/>
         <v>0.72</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M300" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13">
       <c r="A301" t="s">
         <v>4</v>
       </c>
@@ -14088,8 +14995,11 @@
         <f t="shared" si="38"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M301" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13">
       <c r="A302" t="s">
         <v>4</v>
       </c>
@@ -14132,8 +15042,11 @@
         <f t="shared" si="38"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M302" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13">
       <c r="A303" t="s">
         <v>4</v>
       </c>
@@ -14176,8 +15089,11 @@
         <f t="shared" si="38"/>
         <v>0.44000000000000006</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M303" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13">
       <c r="A304" t="s">
         <v>4</v>
       </c>
@@ -14220,8 +15136,11 @@
         <f t="shared" si="38"/>
         <v>0.36000000000000004</v>
       </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M304" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13">
       <c r="A305" t="s">
         <v>4</v>
       </c>
@@ -14264,8 +15183,11 @@
         <f t="shared" si="38"/>
         <v>0.27999999999999997</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M305" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13">
       <c r="A306" t="s">
         <v>4</v>
       </c>
@@ -14308,8 +15230,11 @@
         <f t="shared" si="38"/>
         <v>0.27999999999999997</v>
       </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M306" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13">
       <c r="A307" t="s">
         <v>4</v>
       </c>
@@ -14352,8 +15277,11 @@
         <f t="shared" si="38"/>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M307" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13">
       <c r="A308" t="s">
         <v>4</v>
       </c>
@@ -14396,8 +15324,11 @@
         <f t="shared" si="38"/>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M308" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13">
       <c r="A309" t="s">
         <v>4</v>
       </c>
@@ -14440,8 +15371,11 @@
         <f t="shared" si="38"/>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M309" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13">
       <c r="A310" t="s">
         <v>4</v>
       </c>
@@ -14484,8 +15418,11 @@
         <f t="shared" si="38"/>
         <v>0.24000000000000005</v>
       </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M310" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13">
       <c r="A311" t="s">
         <v>4</v>
       </c>
@@ -14528,8 +15465,11 @@
         <f t="shared" si="38"/>
         <v>0.16</v>
       </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M311" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13">
       <c r="A312" t="s">
         <v>4</v>
       </c>
@@ -14572,8 +15512,11 @@
         <f t="shared" si="39"/>
         <v>0.12000000000000002</v>
       </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M312" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13">
       <c r="A313" t="s">
         <v>4</v>
       </c>
@@ -14616,8 +15559,11 @@
         <f t="shared" si="39"/>
         <v>0.12000000000000002</v>
       </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M313" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13">
       <c r="A314" t="s">
         <v>4</v>
       </c>
@@ -14660,8 +15606,11 @@
         <f t="shared" si="39"/>
         <v>0.12000000000000002</v>
       </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M314" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13">
       <c r="A315" t="s">
         <v>4</v>
       </c>
@@ -14704,8 +15653,11 @@
         <f t="shared" si="39"/>
         <v>0.12000000000000002</v>
       </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M315" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13">
       <c r="A316" t="s">
         <v>4</v>
       </c>
@@ -14748,8 +15700,11 @@
         <f t="shared" si="39"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M316" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13">
       <c r="A317" t="s">
         <v>4</v>
       </c>
@@ -14792,8 +15747,11 @@
         <f t="shared" si="39"/>
         <v>0.31999999999999995</v>
       </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M317" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13">
       <c r="A318" t="s">
         <v>4</v>
       </c>
@@ -14836,8 +15794,11 @@
         <f t="shared" si="39"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M318" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13">
       <c r="A319" t="s">
         <v>4</v>
       </c>
@@ -14880,8 +15841,11 @@
         <f t="shared" si="39"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M319" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13">
       <c r="A320" t="s">
         <v>4</v>
       </c>
@@ -14924,8 +15888,11 @@
         <f t="shared" si="39"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M320" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" ht="17">
       <c r="A321" t="s">
         <v>4</v>
       </c>
@@ -14968,8 +15935,11 @@
         <f t="shared" si="39"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M321" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" ht="17">
       <c r="A322" t="s">
         <v>4</v>
       </c>
@@ -15012,8 +15982,11 @@
         <f t="shared" si="39"/>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M322" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" ht="17">
       <c r="A323" t="s">
         <v>4</v>
       </c>
@@ -15056,8 +16029,11 @@
         <f t="shared" si="39"/>
         <v>0.48000000000000009</v>
       </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M323" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" ht="17">
       <c r="A324" t="s">
         <v>4</v>
       </c>
@@ -15100,8 +16076,11 @@
         <f t="shared" si="39"/>
         <v>0.44000000000000006</v>
       </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M324" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" ht="17">
       <c r="A325" t="s">
         <v>4</v>
       </c>
@@ -15144,8 +16123,11 @@
         <f t="shared" si="39"/>
         <v>0.44000000000000006</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M325" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" ht="17">
       <c r="A326" t="s">
         <v>4</v>
       </c>
@@ -15188,8 +16170,11 @@
         <f t="shared" si="39"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M326" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" ht="17">
       <c r="A327" t="s">
         <v>4</v>
       </c>
@@ -15232,8 +16217,11 @@
         <f t="shared" si="39"/>
         <v>0.44000000000000006</v>
       </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M327" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" ht="17">
       <c r="A328" t="s">
         <v>4</v>
       </c>
@@ -15276,8 +16264,11 @@
         <f t="shared" si="44"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M328" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" ht="17">
       <c r="A329" t="s">
         <v>4</v>
       </c>
@@ -15320,8 +16311,11 @@
         <f t="shared" si="44"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M329" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" ht="17">
       <c r="A330" t="s">
         <v>4</v>
       </c>
@@ -15364,8 +16358,11 @@
         <f t="shared" si="44"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M330" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" ht="17">
       <c r="A331" t="s">
         <v>4</v>
       </c>
@@ -15408,8 +16405,11 @@
         <f t="shared" si="44"/>
         <v>0.6399999999999999</v>
       </c>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M331" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" ht="17">
       <c r="A332" t="s">
         <v>4</v>
       </c>
@@ -15452,8 +16452,11 @@
         <f t="shared" si="44"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M332" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" ht="17">
       <c r="A333" t="s">
         <v>4</v>
       </c>
@@ -15496,8 +16499,11 @@
         <f t="shared" si="44"/>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M333" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" ht="17">
       <c r="A334" t="s">
         <v>4</v>
       </c>
@@ -15540,8 +16546,11 @@
         <f t="shared" si="44"/>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M334" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" ht="17">
       <c r="A335" t="s">
         <v>4</v>
       </c>
@@ -15584,8 +16593,11 @@
         <f t="shared" si="44"/>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M335" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" ht="17">
       <c r="A336" t="s">
         <v>4</v>
       </c>
@@ -15628,8 +16640,11 @@
         <f t="shared" si="44"/>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M336" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" ht="17">
       <c r="A337" t="s">
         <v>4</v>
       </c>
@@ -15672,8 +16687,11 @@
         <f t="shared" si="44"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M337" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" ht="17">
       <c r="A338" t="s">
         <v>4</v>
       </c>
@@ -15716,8 +16734,11 @@
         <f t="shared" si="44"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M338" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" ht="17">
       <c r="A339" t="s">
         <v>4</v>
       </c>
@@ -15760,8 +16781,11 @@
         <f t="shared" si="44"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M339" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" ht="17">
       <c r="A340" t="s">
         <v>4</v>
       </c>
@@ -15804,8 +16828,11 @@
         <f t="shared" si="44"/>
         <v>0.36000000000000004</v>
       </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M340" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" ht="17">
       <c r="A341" t="s">
         <v>4</v>
       </c>
@@ -15848,8 +16875,11 @@
         <f t="shared" si="44"/>
         <v>0.27999999999999997</v>
       </c>
-    </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M341" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" ht="17">
       <c r="A342" t="s">
         <v>4</v>
       </c>
@@ -15892,8 +16922,11 @@
         <f t="shared" si="44"/>
         <v>0.24000000000000005</v>
       </c>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M342" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" ht="17">
       <c r="A343" t="s">
         <v>4</v>
       </c>
@@ -15936,8 +16969,11 @@
         <f t="shared" si="44"/>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M343" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" ht="17">
       <c r="A344" t="s">
         <v>4</v>
       </c>
@@ -15980,8 +17016,11 @@
         <f t="shared" si="45"/>
         <v>0.31999999999999995</v>
       </c>
-    </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M344" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" ht="17">
       <c r="A345" t="s">
         <v>4</v>
       </c>
@@ -16024,8 +17063,11 @@
         <f t="shared" si="45"/>
         <v>0.43999999999999995</v>
       </c>
-    </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M345" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" ht="17">
       <c r="A346" t="s">
         <v>4</v>
       </c>
@@ -16068,8 +17110,11 @@
         <f t="shared" si="45"/>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M346" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" ht="17">
       <c r="A347" t="s">
         <v>4</v>
       </c>
@@ -16112,8 +17157,11 @@
         <f t="shared" si="45"/>
         <v>0.72</v>
       </c>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M347" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" ht="17">
       <c r="A348" t="s">
         <v>4</v>
       </c>
@@ -16156,8 +17204,11 @@
         <f t="shared" si="45"/>
         <v>0.83999999999999986</v>
       </c>
-    </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M348" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" ht="17">
       <c r="A349" t="s">
         <v>4</v>
       </c>
@@ -16200,8 +17251,11 @@
         <f t="shared" si="45"/>
         <v>0.87999999999999989</v>
       </c>
-    </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M349" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" ht="17">
       <c r="A350" t="s">
         <v>4</v>
       </c>
@@ -16244,8 +17298,11 @@
         <f t="shared" si="45"/>
         <v>0.84000000000000008</v>
       </c>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M350" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" ht="17">
       <c r="A351" t="s">
         <v>4</v>
       </c>
@@ -16288,8 +17345,11 @@
         <f t="shared" si="45"/>
         <v>0.76</v>
       </c>
-    </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M351" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" ht="17">
       <c r="A352" t="s">
         <v>4</v>
       </c>
@@ -16332,8 +17392,11 @@
         <f t="shared" si="45"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M352" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" ht="17">
       <c r="A353" t="s">
         <v>4</v>
       </c>
@@ -16376,8 +17439,11 @@
         <f t="shared" si="45"/>
         <v>0.44000000000000006</v>
       </c>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M353" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" ht="17">
       <c r="A354" t="s">
         <v>4</v>
       </c>
@@ -16420,8 +17486,11 @@
         <f t="shared" si="45"/>
         <v>0.32</v>
       </c>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M354" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" ht="17">
       <c r="A355" t="s">
         <v>4</v>
       </c>
@@ -16464,8 +17533,11 @@
         <f t="shared" si="45"/>
         <v>0.24000000000000005</v>
       </c>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M355" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" ht="17">
       <c r="A356" t="s">
         <v>4</v>
       </c>
@@ -16508,8 +17580,11 @@
         <f t="shared" si="45"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M356" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" ht="17">
       <c r="A357" t="s">
         <v>4</v>
       </c>
@@ -16552,8 +17627,11 @@
         <f t="shared" si="45"/>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M357" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" ht="17">
       <c r="A358" t="s">
         <v>4</v>
       </c>
@@ -16596,8 +17674,11 @@
         <f t="shared" si="45"/>
         <v>0.27999999999999997</v>
       </c>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M358" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" ht="17">
       <c r="A359" t="s">
         <v>4</v>
       </c>
@@ -16640,8 +17721,11 @@
         <f t="shared" si="45"/>
         <v>0.32</v>
       </c>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M359" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" ht="17">
       <c r="A360" t="s">
         <v>4</v>
       </c>
@@ -16684,8 +17768,11 @@
         <f t="shared" si="46"/>
         <v>0.36</v>
       </c>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M360" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" ht="17">
       <c r="A361" t="s">
         <v>4</v>
       </c>
@@ -16728,8 +17815,11 @@
         <f t="shared" si="46"/>
         <v>0.43999999999999995</v>
       </c>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M361" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" ht="17">
       <c r="A362" t="s">
         <v>4</v>
       </c>
@@ -16772,8 +17862,11 @@
         <f t="shared" si="46"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M362" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" ht="17">
       <c r="A363" t="s">
         <v>4</v>
       </c>
@@ -16816,8 +17909,11 @@
         <f t="shared" si="46"/>
         <v>0.51999999999999991</v>
       </c>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M363" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" ht="17">
       <c r="A364" t="s">
         <v>4</v>
       </c>
@@ -16860,8 +17956,11 @@
         <f t="shared" si="46"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M364" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" ht="17">
       <c r="A365" t="s">
         <v>4</v>
       </c>
@@ -16904,8 +18003,11 @@
         <f t="shared" si="46"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M365" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" ht="17">
       <c r="A366" t="s">
         <v>4</v>
       </c>
@@ -16948,8 +18050,11 @@
         <f t="shared" si="46"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M366" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" ht="17">
       <c r="A367" t="s">
         <v>4</v>
       </c>
@@ -16992,8 +18097,11 @@
         <f t="shared" si="46"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M367" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" ht="17">
       <c r="A368" t="s">
         <v>4</v>
       </c>
@@ -17036,8 +18144,11 @@
         <f t="shared" si="46"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M368" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" ht="17">
       <c r="A369" t="s">
         <v>4</v>
       </c>
@@ -17080,8 +18191,11 @@
         <f t="shared" si="46"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M369" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" ht="17">
       <c r="A370" t="s">
         <v>4</v>
       </c>
@@ -17124,8 +18238,11 @@
         <f t="shared" si="46"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M370" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" ht="17">
       <c r="A371" t="s">
         <v>4</v>
       </c>
@@ -17168,8 +18285,11 @@
         <f t="shared" si="46"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M371" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" ht="17">
       <c r="A372" t="s">
         <v>4</v>
       </c>
@@ -17212,8 +18332,11 @@
         <f t="shared" si="46"/>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M372" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" ht="17">
       <c r="A373" t="s">
         <v>4</v>
       </c>
@@ -17256,8 +18379,11 @@
         <f t="shared" si="46"/>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M373" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" ht="17">
       <c r="A374" t="s">
         <v>4</v>
       </c>
@@ -17300,8 +18426,11 @@
         <f t="shared" si="46"/>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M374" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" ht="17">
       <c r="A375" t="s">
         <v>4</v>
       </c>
@@ -17344,8 +18473,11 @@
         <f t="shared" si="46"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M375" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" ht="17">
       <c r="A376" t="s">
         <v>4</v>
       </c>
@@ -17388,8 +18520,11 @@
         <f t="shared" si="47"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M376" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" ht="17">
       <c r="A377" t="s">
         <v>4</v>
       </c>
@@ -17432,8 +18567,11 @@
         <f t="shared" si="47"/>
         <v>0.68</v>
       </c>
-    </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M377" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" ht="17">
       <c r="A378" t="s">
         <v>4</v>
       </c>
@@ -17476,8 +18614,11 @@
         <f t="shared" si="47"/>
         <v>0.72</v>
       </c>
-    </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M378" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" ht="17">
       <c r="A379" t="s">
         <v>4</v>
       </c>
@@ -17520,8 +18661,11 @@
         <f t="shared" si="47"/>
         <v>0.68</v>
       </c>
-    </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M379" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" ht="17">
       <c r="A380" t="s">
         <v>4</v>
       </c>
@@ -17564,8 +18708,11 @@
         <f t="shared" si="47"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M380" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" ht="17">
       <c r="A381" t="s">
         <v>4</v>
       </c>
@@ -17608,8 +18755,11 @@
         <f t="shared" si="47"/>
         <v>0.52000000000000013</v>
       </c>
-    </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M381" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" ht="17">
       <c r="A382" t="s">
         <v>4</v>
       </c>
@@ -17652,8 +18802,11 @@
         <f t="shared" si="47"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M382" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" ht="17">
       <c r="A383" t="s">
         <v>4</v>
       </c>
@@ -17696,8 +18849,11 @@
         <f t="shared" si="47"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M383" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" ht="17">
       <c r="A384" t="s">
         <v>4</v>
       </c>
@@ -17740,8 +18896,11 @@
         <f t="shared" si="47"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M384" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" ht="17">
       <c r="A385" t="s">
         <v>4</v>
       </c>
@@ -17784,8 +18943,11 @@
         <f t="shared" si="47"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M385" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" ht="17">
       <c r="A386" t="s">
         <v>4</v>
       </c>
@@ -17828,8 +18990,11 @@
         <f t="shared" si="47"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M386" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" ht="17">
       <c r="A387" t="s">
         <v>4</v>
       </c>
@@ -17872,8 +19037,11 @@
         <f t="shared" si="47"/>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M387" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" ht="17">
       <c r="A388" t="s">
         <v>4</v>
       </c>
@@ -17916,8 +19084,11 @@
         <f t="shared" si="47"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M388" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" ht="17">
       <c r="A389" t="s">
         <v>4</v>
       </c>
@@ -17960,8 +19131,11 @@
         <f t="shared" si="47"/>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M389" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" ht="17">
       <c r="A390" t="s">
         <v>4</v>
       </c>
@@ -18004,8 +19178,11 @@
         <f t="shared" si="47"/>
         <v>0.51999999999999991</v>
       </c>
-    </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M390" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" ht="17">
       <c r="A391" t="s">
         <v>4</v>
       </c>
@@ -18048,8 +19225,11 @@
         <f t="shared" si="47"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M391" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" ht="17">
       <c r="A392" t="s">
         <v>4</v>
       </c>
@@ -18092,8 +19272,11 @@
         <f t="shared" si="52"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M392" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" ht="17">
       <c r="A393" t="s">
         <v>4</v>
       </c>
@@ -18136,8 +19319,11 @@
         <f t="shared" si="52"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M393" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" ht="17">
       <c r="A394" t="s">
         <v>4</v>
       </c>
@@ -18180,8 +19366,11 @@
         <f t="shared" si="52"/>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M394" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" ht="17">
       <c r="A395" t="s">
         <v>4</v>
       </c>
@@ -18224,8 +19413,11 @@
         <f t="shared" si="52"/>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M395" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" ht="17">
       <c r="A396" t="s">
         <v>4</v>
       </c>
@@ -18268,8 +19460,11 @@
         <f t="shared" si="52"/>
         <v>0.48000000000000009</v>
       </c>
-    </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M396" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" ht="17">
       <c r="A397" t="s">
         <v>4</v>
       </c>
@@ -18312,8 +19507,11 @@
         <f t="shared" si="52"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M397" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" ht="17">
       <c r="A398" t="s">
         <v>4</v>
       </c>
@@ -18356,8 +19554,11 @@
         <f t="shared" si="52"/>
         <v>0.27999999999999997</v>
       </c>
-    </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M398" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" ht="17">
       <c r="A399" t="s">
         <v>4</v>
       </c>
@@ -18400,8 +19601,11 @@
         <f t="shared" si="52"/>
         <v>0.24000000000000005</v>
       </c>
-    </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M399" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" ht="17">
       <c r="A400" t="s">
         <v>4</v>
       </c>
@@ -18444,8 +19648,11 @@
         <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M400" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" ht="17">
       <c r="A401" t="s">
         <v>4</v>
       </c>
@@ -18488,8 +19695,11 @@
         <f t="shared" si="52"/>
         <v>0.16</v>
       </c>
-    </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M401" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" ht="17">
       <c r="A402" t="s">
         <v>4</v>
       </c>
@@ -18532,8 +19742,11 @@
         <f t="shared" si="52"/>
         <v>0.16</v>
       </c>
-    </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M402" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" ht="17">
       <c r="A403" t="s">
         <v>4</v>
       </c>
@@ -18576,8 +19789,11 @@
         <f t="shared" si="52"/>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M403" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" ht="17">
       <c r="A404" t="s">
         <v>4</v>
       </c>
@@ -18620,8 +19836,11 @@
         <f t="shared" si="52"/>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M404" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" ht="17">
       <c r="A405" t="s">
         <v>4</v>
       </c>
@@ -18664,8 +19883,11 @@
         <f t="shared" si="52"/>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M405" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" ht="17">
       <c r="A406" t="s">
         <v>4</v>
       </c>
@@ -18708,8 +19930,11 @@
         <f t="shared" si="52"/>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M406" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" ht="17">
       <c r="A407" t="s">
         <v>4</v>
       </c>
@@ -18752,8 +19977,11 @@
         <f t="shared" si="52"/>
         <v>0.27999999999999997</v>
       </c>
-    </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M407" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" ht="17">
       <c r="A408" t="s">
         <v>4</v>
       </c>
@@ -18796,8 +20024,11 @@
         <f t="shared" si="53"/>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M408" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" ht="17">
       <c r="A409" t="s">
         <v>4</v>
       </c>
@@ -18840,8 +20071,11 @@
         <f t="shared" si="53"/>
         <v>0.27999999999999997</v>
       </c>
-    </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M409" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" ht="17">
       <c r="A410" t="s">
         <v>4</v>
       </c>
@@ -18884,8 +20118,11 @@
         <f t="shared" si="53"/>
         <v>0.31999999999999995</v>
       </c>
-    </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M410" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" ht="17">
       <c r="A411" t="s">
         <v>4</v>
       </c>
@@ -18928,8 +20165,11 @@
         <f t="shared" si="53"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M411" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" ht="17">
       <c r="A412" t="s">
         <v>4</v>
       </c>
@@ -18972,8 +20212,11 @@
         <f t="shared" si="53"/>
         <v>0.39999999999999997</v>
       </c>
-    </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M412" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" ht="17">
       <c r="A413" t="s">
         <v>4</v>
       </c>
@@ -19016,8 +20259,11 @@
         <f t="shared" si="53"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M413" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" ht="17">
       <c r="A414" t="s">
         <v>4</v>
       </c>
@@ -19060,8 +20306,11 @@
         <f t="shared" si="53"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M414" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" ht="17">
       <c r="A415" t="s">
         <v>4</v>
       </c>
@@ -19104,8 +20353,11 @@
         <f t="shared" si="53"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M415" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" ht="17">
       <c r="A416" t="s">
         <v>4</v>
       </c>
@@ -19148,8 +20400,11 @@
         <f t="shared" si="53"/>
         <v>0.44000000000000006</v>
       </c>
-    </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M416" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" ht="17">
       <c r="A417" t="s">
         <v>4</v>
       </c>
@@ -19192,8 +20447,11 @@
         <f t="shared" si="53"/>
         <v>0.44000000000000006</v>
       </c>
-    </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M417" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" ht="17">
       <c r="A418" t="s">
         <v>4</v>
       </c>
@@ -19236,8 +20494,11 @@
         <f t="shared" si="53"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M418" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" ht="17">
       <c r="A419" t="s">
         <v>4</v>
       </c>
@@ -19280,8 +20541,11 @@
         <f t="shared" si="53"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M419" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" ht="17">
       <c r="A420" t="s">
         <v>4</v>
       </c>
@@ -19324,8 +20588,11 @@
         <f t="shared" si="53"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M420" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" ht="17">
       <c r="A421" t="s">
         <v>4</v>
       </c>
@@ -19368,8 +20635,11 @@
         <f t="shared" si="53"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M421" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" ht="17">
       <c r="A422" t="s">
         <v>4</v>
       </c>
@@ -19412,8 +20682,11 @@
         <f t="shared" si="53"/>
         <v>0.43999999999999995</v>
       </c>
-    </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M422" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" ht="17">
       <c r="A423" t="s">
         <v>4</v>
       </c>
@@ -19456,8 +20729,11 @@
         <f t="shared" si="53"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M423" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" ht="17">
       <c r="A424" t="s">
         <v>4</v>
       </c>
@@ -19500,8 +20776,11 @@
         <f t="shared" si="54"/>
         <v>0.51999999999999991</v>
       </c>
-    </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M424" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" ht="17">
       <c r="A425" t="s">
         <v>4</v>
       </c>
@@ -19544,8 +20823,11 @@
         <f t="shared" si="54"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M425" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" ht="17">
       <c r="A426" t="s">
         <v>4</v>
       </c>
@@ -19588,8 +20870,11 @@
         <f t="shared" si="54"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M426" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" ht="17">
       <c r="A427" t="s">
         <v>4</v>
       </c>
@@ -19632,8 +20917,11 @@
         <f t="shared" si="54"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M427" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" ht="17">
       <c r="A428" t="s">
         <v>4</v>
       </c>
@@ -19676,8 +20964,11 @@
         <f t="shared" si="54"/>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M428" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" ht="17">
       <c r="A429" t="s">
         <v>4</v>
       </c>
@@ -19720,8 +21011,11 @@
         <f t="shared" si="54"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M429" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" ht="17">
       <c r="A430" t="s">
         <v>4</v>
       </c>
@@ -19764,8 +21058,11 @@
         <f t="shared" si="54"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M430" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" ht="17">
       <c r="A431" t="s">
         <v>4</v>
       </c>
@@ -19808,8 +21105,11 @@
         <f t="shared" si="54"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M431" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" ht="17">
       <c r="A432" t="s">
         <v>4</v>
       </c>
@@ -19852,8 +21152,11 @@
         <f t="shared" si="54"/>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M432" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" ht="17">
       <c r="A433" t="s">
         <v>4</v>
       </c>
@@ -19896,8 +21199,11 @@
         <f t="shared" si="54"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M433" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" ht="17">
       <c r="A434" t="s">
         <v>4</v>
       </c>
@@ -19940,8 +21246,11 @@
         <f t="shared" si="54"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M434" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" ht="17">
       <c r="A435" t="s">
         <v>4</v>
       </c>
@@ -19984,8 +21293,11 @@
         <f t="shared" si="54"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M435" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" ht="17">
       <c r="A436" t="s">
         <v>4</v>
       </c>
@@ -20028,8 +21340,11 @@
         <f t="shared" si="54"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M436" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13" ht="17">
       <c r="A437" t="s">
         <v>4</v>
       </c>
@@ -20072,8 +21387,11 @@
         <f t="shared" si="54"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M437" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" ht="17">
       <c r="A438" t="s">
         <v>4</v>
       </c>
@@ -20116,8 +21434,11 @@
         <f t="shared" si="54"/>
         <v>0.60000000000000009</v>
       </c>
-    </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M438" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" ht="17">
       <c r="A439" t="s">
         <v>4</v>
       </c>
@@ -20160,8 +21481,11 @@
         <f t="shared" si="54"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M439" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" ht="17">
       <c r="A440" t="s">
         <v>4</v>
       </c>
@@ -20204,8 +21528,11 @@
         <f t="shared" si="55"/>
         <v>0.48000000000000009</v>
       </c>
-    </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M440" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" ht="17">
       <c r="A441" t="s">
         <v>4</v>
       </c>
@@ -20248,8 +21575,11 @@
         <f t="shared" si="55"/>
         <v>0.44000000000000006</v>
       </c>
-    </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M441" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" ht="17">
       <c r="A442" t="s">
         <v>4</v>
       </c>
@@ -20292,8 +21622,11 @@
         <f t="shared" si="55"/>
         <v>0.43999999999999995</v>
       </c>
-    </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M442" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" ht="17">
       <c r="A443" t="s">
         <v>4</v>
       </c>
@@ -20336,8 +21669,11 @@
         <f t="shared" si="55"/>
         <v>0.51999999999999991</v>
       </c>
-    </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M443" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" ht="17">
       <c r="A444" t="s">
         <v>4</v>
       </c>
@@ -20380,8 +21716,11 @@
         <f t="shared" si="55"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M444" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" ht="17">
       <c r="A445" t="s">
         <v>4</v>
       </c>
@@ -20424,8 +21763,11 @@
         <f t="shared" si="55"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M445" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" ht="17">
       <c r="A446" t="s">
         <v>4</v>
       </c>
@@ -20468,8 +21810,11 @@
         <f t="shared" si="55"/>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M446" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" ht="17">
       <c r="A447" t="s">
         <v>4</v>
       </c>
@@ -20512,8 +21857,11 @@
         <f t="shared" si="55"/>
         <v>0.48000000000000009</v>
       </c>
-    </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M447" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" ht="17">
       <c r="A448" t="s">
         <v>4</v>
       </c>
@@ -20556,8 +21904,11 @@
         <f t="shared" si="55"/>
         <v>0.36000000000000004</v>
       </c>
-    </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M448" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" ht="17">
       <c r="A449" t="s">
         <v>4</v>
       </c>
@@ -20600,8 +21951,11 @@
         <f t="shared" si="55"/>
         <v>0.27999999999999997</v>
       </c>
-    </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M449" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" ht="17">
       <c r="A450" t="s">
         <v>4</v>
       </c>
@@ -20644,8 +21998,11 @@
         <f t="shared" si="55"/>
         <v>0.27999999999999997</v>
       </c>
-    </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M450" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" ht="17">
       <c r="A451" t="s">
         <v>4</v>
       </c>
@@ -20688,8 +22045,11 @@
         <f t="shared" si="55"/>
         <v>0.31999999999999995</v>
       </c>
-    </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M451" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" ht="17">
       <c r="A452" t="s">
         <v>4</v>
       </c>
@@ -20732,8 +22092,11 @@
         <f t="shared" si="55"/>
         <v>0.43999999999999995</v>
       </c>
-    </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M452" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" ht="17">
       <c r="A453" t="s">
         <v>4</v>
       </c>
@@ -20776,8 +22139,11 @@
         <f t="shared" si="55"/>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M453" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" ht="17">
       <c r="A454" t="s">
         <v>4</v>
       </c>
@@ -20820,8 +22186,11 @@
         <f t="shared" si="55"/>
         <v>0.72</v>
       </c>
-    </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M454" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" ht="17">
       <c r="A455" t="s">
         <v>4</v>
       </c>
@@ -20864,8 +22233,11 @@
         <f t="shared" si="55"/>
         <v>0.83999999999999986</v>
       </c>
-    </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M455" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" ht="17">
       <c r="A456" t="s">
         <v>4</v>
       </c>
@@ -20908,8 +22280,11 @@
         <f t="shared" si="60"/>
         <v>0.91999999999999993</v>
       </c>
-    </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M456" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" ht="17">
       <c r="A457" t="s">
         <v>4</v>
       </c>
@@ -20952,8 +22327,11 @@
         <f t="shared" si="60"/>
         <v>0.96</v>
       </c>
-    </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M457" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" ht="17">
       <c r="A458" t="s">
         <v>4</v>
       </c>
@@ -20996,8 +22374,11 @@
         <f t="shared" si="60"/>
         <v>0.96</v>
       </c>
-    </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M458" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" ht="17">
       <c r="A459" t="s">
         <v>4</v>
       </c>
@@ -21040,8 +22421,11 @@
         <f t="shared" si="60"/>
         <v>0.88000000000000012</v>
       </c>
-    </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M459" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" ht="17">
       <c r="A460" t="s">
         <v>4</v>
       </c>
@@ -21084,8 +22468,11 @@
         <f t="shared" si="60"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M460" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" ht="17">
       <c r="A461" t="s">
         <v>4</v>
       </c>
@@ -21128,8 +22515,11 @@
         <f t="shared" si="60"/>
         <v>0.68</v>
       </c>
-    </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M461" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" ht="17">
       <c r="A462" t="s">
         <v>4</v>
       </c>
@@ -21172,8 +22562,11 @@
         <f t="shared" si="60"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M462" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" ht="17">
       <c r="A463" t="s">
         <v>4</v>
       </c>
@@ -21216,8 +22609,11 @@
         <f t="shared" si="60"/>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M463" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" ht="17">
       <c r="A464" t="s">
         <v>4</v>
       </c>
@@ -21260,8 +22656,11 @@
         <f t="shared" si="60"/>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M464" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" ht="17">
       <c r="A465" t="s">
         <v>4</v>
       </c>
@@ -21304,8 +22703,11 @@
         <f t="shared" si="60"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M465" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" ht="17">
       <c r="A466" t="s">
         <v>4</v>
       </c>
@@ -21348,8 +22750,11 @@
         <f t="shared" si="60"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M466" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" ht="17">
       <c r="A467" t="s">
         <v>4</v>
       </c>
@@ -21392,8 +22797,11 @@
         <f t="shared" si="60"/>
         <v>0.48000000000000009</v>
       </c>
-    </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M467" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" ht="17">
       <c r="A468" t="s">
         <v>4</v>
       </c>
@@ -21436,8 +22844,11 @@
         <f t="shared" si="60"/>
         <v>0.44000000000000006</v>
       </c>
-    </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M468" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" ht="17">
       <c r="A469" t="s">
         <v>4</v>
       </c>
@@ -21480,8 +22891,11 @@
         <f t="shared" si="60"/>
         <v>0.43999999999999995</v>
       </c>
-    </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M469" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" ht="17">
       <c r="A470" t="s">
         <v>4</v>
       </c>
@@ -21524,8 +22938,11 @@
         <f t="shared" si="60"/>
         <v>0.51999999999999991</v>
       </c>
-    </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M470" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" ht="17">
       <c r="A471" t="s">
         <v>4</v>
       </c>
@@ -21568,8 +22985,11 @@
         <f t="shared" si="60"/>
         <v>0.6399999999999999</v>
       </c>
-    </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M471" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" ht="17">
       <c r="A472" t="s">
         <v>4</v>
       </c>
@@ -21612,8 +23032,11 @@
         <f t="shared" si="61"/>
         <v>0.72</v>
       </c>
-    </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M472" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" ht="17">
       <c r="A473" t="s">
         <v>4</v>
       </c>
@@ -21656,8 +23079,11 @@
         <f t="shared" si="61"/>
         <v>0.76</v>
       </c>
-    </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M473" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" ht="17">
       <c r="A474" t="s">
         <v>4</v>
       </c>
@@ -21700,8 +23126,11 @@
         <f t="shared" si="61"/>
         <v>0.76</v>
       </c>
-    </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M474" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" ht="17">
       <c r="A475" t="s">
         <v>4</v>
       </c>
@@ -21744,8 +23173,11 @@
         <f t="shared" si="61"/>
         <v>0.68</v>
       </c>
-    </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M475" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" ht="17">
       <c r="A476" t="s">
         <v>4</v>
       </c>
@@ -21788,8 +23220,11 @@
         <f t="shared" si="61"/>
         <v>0.55999999999999994</v>
       </c>
-    </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M476" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" ht="17">
       <c r="A477" t="s">
         <v>4</v>
       </c>
@@ -21832,8 +23267,11 @@
         <f t="shared" si="61"/>
         <v>0.48000000000000009</v>
       </c>
-    </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M477" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" ht="17">
       <c r="A478" t="s">
         <v>4</v>
       </c>
@@ -21876,8 +23314,11 @@
         <f t="shared" si="61"/>
         <v>0.44000000000000006</v>
       </c>
-    </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M478" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" ht="17">
       <c r="A479" t="s">
         <v>4</v>
       </c>
@@ -21920,8 +23361,11 @@
         <f t="shared" si="61"/>
         <v>0.36</v>
       </c>
-    </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M479" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" ht="17">
       <c r="A480" t="s">
         <v>4</v>
       </c>
@@ -21964,8 +23408,11 @@
         <f t="shared" si="61"/>
         <v>0.32</v>
       </c>
-    </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M480" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" ht="17">
       <c r="A481" t="s">
         <v>4</v>
       </c>
@@ -22008,8 +23455,11 @@
         <f t="shared" si="61"/>
         <v>0.24000000000000005</v>
       </c>
-    </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M481" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" ht="17">
       <c r="A482" t="s">
         <v>4</v>
       </c>
@@ -22052,8 +23502,11 @@
         <f t="shared" si="61"/>
         <v>0.16</v>
       </c>
-    </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M482" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" ht="17">
       <c r="A483" t="s">
         <v>4</v>
       </c>
@@ -22096,8 +23549,11 @@
         <f t="shared" si="61"/>
         <v>0.08</v>
       </c>
-    </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M483" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" ht="17">
       <c r="A484" t="s">
         <v>4</v>
       </c>
@@ -22140,8 +23596,11 @@
         <f t="shared" si="61"/>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M484" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" ht="17">
       <c r="A485" t="s">
         <v>4</v>
       </c>
@@ -22184,8 +23643,11 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M485" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" ht="17">
       <c r="A486" t="s">
         <v>4</v>
       </c>
@@ -22228,8 +23690,11 @@
         <f t="shared" si="61"/>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M486" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" ht="17">
       <c r="A487" t="s">
         <v>4</v>
       </c>
@@ -22272,8 +23737,11 @@
         <f t="shared" si="61"/>
         <v>0.12000000000000002</v>
       </c>
-    </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M487" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" ht="17">
       <c r="A488" t="s">
         <v>4</v>
       </c>
@@ -22316,8 +23784,11 @@
         <f t="shared" si="62"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M488" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" ht="17">
       <c r="A489" t="s">
         <v>4</v>
       </c>
@@ -22360,8 +23831,11 @@
         <f t="shared" si="62"/>
         <v>0.31999999999999995</v>
       </c>
-    </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M489" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" ht="17">
       <c r="A490" t="s">
         <v>4</v>
       </c>
@@ -22404,8 +23878,11 @@
         <f t="shared" si="62"/>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M490" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" ht="17">
       <c r="A491" t="s">
         <v>4</v>
       </c>
@@ -22448,8 +23925,11 @@
         <f t="shared" si="62"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M491" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" ht="17">
       <c r="A492" t="s">
         <v>4</v>
       </c>
@@ -22492,8 +23972,11 @@
         <f t="shared" si="62"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M492" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" ht="17">
       <c r="A493" t="s">
         <v>4</v>
       </c>
@@ -22536,8 +24019,11 @@
         <f t="shared" si="62"/>
         <v>0.67999999999999994</v>
       </c>
-    </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M493" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" ht="17">
       <c r="A494" t="s">
         <v>4</v>
       </c>
@@ -22580,8 +24066,11 @@
         <f t="shared" si="62"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M494" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" ht="17">
       <c r="A495" t="s">
         <v>4</v>
       </c>
@@ -22624,8 +24113,11 @@
         <f t="shared" si="62"/>
         <v>0.52000000000000013</v>
       </c>
-    </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M495" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" ht="17">
       <c r="A496" t="s">
         <v>4</v>
       </c>
@@ -22668,8 +24160,11 @@
         <f t="shared" si="62"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M496" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="497" spans="1:13" ht="17">
       <c r="A497" t="s">
         <v>4</v>
       </c>
@@ -22711,6 +24206,9 @@
       <c r="L497">
         <f t="shared" si="62"/>
         <v>0.32</v>
+      </c>
+      <c r="M497" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
